--- a/FOL/TablasRiesgosLaborales.xlsx
+++ b/FOL/TablasRiesgosLaborales.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\gitDaw\FOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40F0FBBB-6476-4483-850B-7521410E1080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AC9099-5183-42F8-8BCA-71B4EFC7F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2E24294B-FBDF-466F-B8FE-D6B5C4E2B82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Recorrido1" sheetId="1" r:id="rId1"/>
+    <sheet name="Recorrido2" sheetId="2" r:id="rId2"/>
+    <sheet name="Recorrido3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="46">
   <si>
     <t>Bienestar</t>
   </si>
@@ -120,6 +122,57 @@
   </si>
   <si>
     <t>Seguridad/Lugar</t>
+  </si>
+  <si>
+    <t>Medioambientales</t>
+  </si>
+  <si>
+    <t>Psicosocial</t>
+  </si>
+  <si>
+    <t>Pasillo</t>
+  </si>
+  <si>
+    <t>Extintores Pasillo</t>
+  </si>
+  <si>
+    <t>Mangueras Pasillo</t>
+  </si>
+  <si>
+    <t>Alarmas incendios Pasillo</t>
+  </si>
+  <si>
+    <t>Iluminacion Pasillo</t>
+  </si>
+  <si>
+    <t>m2 Clase</t>
+  </si>
+  <si>
+    <t>Escaleras Clase</t>
+  </si>
+  <si>
+    <t>Enchufes Clase</t>
+  </si>
+  <si>
+    <t>Iluminacion Clase</t>
+  </si>
+  <si>
+    <t>Escaleras pequeñas P0-P1</t>
+  </si>
+  <si>
+    <t>Escaleras P1-P2</t>
+  </si>
+  <si>
+    <t>Pasillo P2</t>
+  </si>
+  <si>
+    <t>Puerta principal -Aula de emprendimiento (A.E.)</t>
+  </si>
+  <si>
+    <t>Puerta Principal - Clase</t>
+  </si>
+  <si>
+    <t>Puerta Principal - Aula T.E.21</t>
   </si>
 </sst>
 </file>
@@ -174,7 +227,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -211,15 +308,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08212B3E-A915-4955-B4B1-7A618753BA7D}" name="Tabla2" displayName="Tabla2" ref="A2:F17" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08212B3E-A915-4955-B4B1-7A618753BA7D}" name="Tabla2" displayName="Tabla2" ref="A2:F17" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A2:F17" xr:uid="{08212B3E-A915-4955-B4B1-7A618753BA7D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F581A4C4-7403-44E1-B511-8142B4A087BE}" name="Bienestar"/>
     <tableColumn id="2" xr3:uid="{08B02EAD-A4CF-498F-9A94-B034DA21D22A}" name="Condicion laboral"/>
     <tableColumn id="3" xr3:uid="{53F86169-0E80-4CFE-83AD-7961BBF794B4}" name="Mediciones"/>
-    <tableColumn id="4" xr3:uid="{F5D0778A-A475-42A4-B512-5B4115A79F2B}" name="Medición" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{F5D0778A-A475-42A4-B512-5B4115A79F2B}" name="Medición" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{61DCEBA4-F925-48ED-B13F-69A46D7F5AA8}" name="Normativa"/>
     <tableColumn id="6" xr3:uid="{3638A531-8777-4C43-81E1-37D249EF128B}" name="Riesgo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C6D2738-9193-4F7E-870B-124DEE86090A}" name="Tabla22" displayName="Tabla22" ref="A2:F17" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:F17" xr:uid="{08212B3E-A915-4955-B4B1-7A618753BA7D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EFC97AFA-87DE-43CD-B8C0-A9D2B900BD1B}" name="Bienestar"/>
+    <tableColumn id="2" xr3:uid="{7A2D1960-C3AB-48F6-AFA7-CDDE31A6B861}" name="Condicion laboral"/>
+    <tableColumn id="3" xr3:uid="{62BC78A6-6DB1-49C5-9785-63118364294D}" name="Mediciones"/>
+    <tableColumn id="4" xr3:uid="{F2668010-4E0E-49E9-87BB-A34EE2FA9FF8}" name="Medición" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{BDF492C7-93EE-4F4A-97B2-D2829D9513C9}" name="Normativa"/>
+    <tableColumn id="6" xr3:uid="{D6E9246C-CB2E-4CED-8E9B-91CD29520D22}" name="Riesgo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B99061AD-6A73-48E5-AB48-01FE049374FC}" name="Tabla224" displayName="Tabla224" ref="A2:F17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:F17" xr:uid="{08212B3E-A915-4955-B4B1-7A618753BA7D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9C419356-6ED2-4BC8-B0A8-2A0FD5DEEE83}" name="Bienestar"/>
+    <tableColumn id="2" xr3:uid="{A9CFBBD6-58C1-4D9F-869D-94A4BD90A0AB}" name="Condicion laboral"/>
+    <tableColumn id="3" xr3:uid="{AD954199-879C-46D3-9049-F8C75FF9BEC2}" name="Mediciones"/>
+    <tableColumn id="4" xr3:uid="{38549C1C-85C5-451A-B1EB-1B67C6FF970A}" name="Medición" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{25D4423F-744B-4D8D-8548-EFD2C35888E7}" name="Normativa"/>
+    <tableColumn id="6" xr3:uid="{FA097E01-C63F-4CB7-B18D-479505478C51}" name="Riesgo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -522,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C5F172-E326-4386-B4E8-C7A5A1ACF824}">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +711,9 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -593,6 +723,9 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
@@ -602,6 +735,9 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -611,6 +747,9 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -620,6 +759,9 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -628,6 +770,9 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -638,6 +783,9 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -646,6 +794,9 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -656,6 +807,9 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
@@ -664,6 +818,9 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -674,6 +831,9 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -682,6 +842,9 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
@@ -697,10 +860,490 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0AB1E-F2D5-47B8-9CF4-0FB69A79BF2A}">
+  <dimension ref="A2:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCB4CA3-68BD-4A4E-97EE-9BB58C1F841C}">
+  <dimension ref="A2:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
